--- a/attachments/calculate-for-pagination.xlsx
+++ b/attachments/calculate-for-pagination.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\repo\noritersand.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39831F48-817D-4A9C-8D79-A886B95358DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25575"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,15 +43,6 @@
   </si>
   <si>
     <t>rowsPerPage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>버림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalRows 
-/ rowsPerPage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -122,14 +125,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pageLength</t>
+    <t>totalNumberOfPages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽에서 버림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNumbersLength</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,14 +210,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -239,10 +247,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,25 +266,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A6:H16" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A6:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A6:H16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A6:H16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="currentPage"/>
-    <tableColumn id="2" name="totalRows"/>
-    <tableColumn id="7" name="rowsPerPage" dataDxfId="6"/>
-    <tableColumn id="6" name="totalRows _x000a_/ rowsPerPage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="currentPage"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="totalRows"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="rowsPerPage" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="totalNumberOfPages" dataDxfId="4">
       <calculatedColumnFormula>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="버림" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="왼쪽에서 버림" dataDxfId="3">
       <calculatedColumnFormula>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pageLength" dataDxfId="2">
-      <calculatedColumnFormula>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="pageNumbersLength" dataDxfId="2">
+      <calculatedColumnFormula>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="startNumber" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="startNumber" dataDxfId="1">
       <calculatedColumnFormula>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="endNumber" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="endNumber" dataDxfId="0">
       <calculatedColumnFormula>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -546,58 +554,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -607,26 +618,26 @@
       <c r="B7">
         <v>1000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>100</v>
       </c>
-      <c r="F7" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F7">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>10</v>
       </c>
@@ -638,26 +649,26 @@
       <c r="B8">
         <v>1100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>55</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>55</v>
       </c>
-      <c r="F8" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F8">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>55</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>21</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>40</v>
       </c>
@@ -669,26 +680,26 @@
       <c r="B9">
         <v>200</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>13</v>
       </c>
-      <c r="F9" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F9">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>14</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>31</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>45</v>
       </c>
@@ -700,26 +711,26 @@
       <c r="B10">
         <v>500</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>25</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>25</v>
       </c>
-      <c r="F10" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F10">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>25</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>61</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>80</v>
       </c>
@@ -731,26 +742,26 @@
       <c r="B11">
         <v>400</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>8</v>
       </c>
-      <c r="F11" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F11">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>50</v>
       </c>
@@ -762,26 +773,26 @@
       <c r="B12">
         <v>350</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>40</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>8.75</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>8</v>
       </c>
-      <c r="F12" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F12">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>9</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>80</v>
       </c>
@@ -793,26 +804,26 @@
       <c r="B13">
         <v>129</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>30</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>4.3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>4</v>
       </c>
-      <c r="F13" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F13">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>61</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>90</v>
       </c>
@@ -824,26 +835,26 @@
       <c r="B14">
         <v>239</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>23.9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>23</v>
       </c>
-      <c r="F14" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F14">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>24</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>31</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>40</v>
       </c>
@@ -855,26 +866,26 @@
       <c r="B15">
         <v>49</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>9</v>
       </c>
-      <c r="F15" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F15">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>10</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>5</v>
       </c>
@@ -886,26 +897,26 @@
       <c r="B16">
         <v>999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>20</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <f>표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]]</f>
         <v>49.95</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <f>INT(표1[[#This Row],[totalRows]] / 표1[[#This Row],[rowsPerPage]])</f>
         <v>49</v>
       </c>
-      <c r="F16" s="2">
-        <f>표1[[#This Row],[버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
+      <c r="F16">
+        <f>표1[[#This Row],[왼쪽에서 버림]]+IF(MOD(표1[[#This Row],[totalRows]], 표1[[#This Row],[rowsPerPage]]) = 0, 0, 1)</f>
         <v>50</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <f>IF(표1[[#This Row],[currentPage]] = 1, 1, (표1[[#This Row],[currentPage]]-1) * 표1[[#This Row],[rowsPerPage]] + 1)</f>
         <v>21</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <f>표1[[#This Row],[currentPage]] * 표1[[#This Row],[rowsPerPage]]</f>
         <v>40</v>
       </c>
